--- a/Data Science/Advance Excel/Lab 6/Errors in excel.xlsx
+++ b/Data Science/Advance Excel/Lab 6/Errors in excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github repository\Lab-Record\Data Science\Advance Excel\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9F72D1-5ACA-43AE-BD04-423BD05E9A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48B61DE-3846-49E0-86D6-63722FD0F43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5C9DD47-7B09-43AA-91C4-AB9B0ACE895F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -165,10 +165,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +519,7 @@
   <dimension ref="A3:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,22 +538,22 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="L3" s="1" t="s">
+      <c r="J3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="O3" s="1" t="s">
+      <c r="M3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="R3" s="1" t="s">
+      <c r="P3" s="2"/>
+      <c r="R3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="1"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="e">
@@ -628,18 +628,18 @@
         <f ca="1">$I$8</f>
         <v>#NAME?</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="L7" s="1" t="s">
+      <c r="J7" s="2"/>
+      <c r="L7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="O7" s="1" t="s">
+      <c r="M7" s="2"/>
+      <c r="O7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="1"/>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="e">
@@ -678,35 +678,35 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" t="e">
@@ -910,7 +910,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data Science/Advance Excel/Lab 6/Errors in excel.xlsx
+++ b/Data Science/Advance Excel/Lab 6/Errors in excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github repository\Lab-Record\Data Science\Advance Excel\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48B61DE-3846-49E0-86D6-63722FD0F43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9E72A3-390D-40DA-9997-CE9E8FD0BBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5C9DD47-7B09-43AA-91C4-AB9B0ACE895F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -519,7 +519,7 @@
   <dimension ref="A3:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,6 +759,10 @@
         <f t="shared" ref="G15:G20" si="3">_xlfn.IFNA(B15,"no no")</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="L15" t="str">
+        <f>IFERROR(E4,"error ho gya bhai")</f>
+        <v>nikhil</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" t="e">
@@ -784,6 +788,10 @@
       <c r="G16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
+      </c>
+      <c r="L16" t="b">
+        <f>ISREF([1]ref!B14)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
